--- a/tcs_sales.xlsx
+++ b/tcs_sales.xlsx
@@ -166,12 +166,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>132694224431645440_1</t>
+          <t>141489781067060032_1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -191,27 +191,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>536.6071429</t>
+          <t>575.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>601.0</t>
+          <t>644.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>29.46428571</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -226,7 +226,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -253,12 +253,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>129516777247049728_1</t>
+          <t>142239724304238916_1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -278,22 +278,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>594.6428571</t>
+          <t>417.8571429</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>666.0</t>
+          <t>468.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>41.96428571</t>
+          <t>90.17857143</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -313,7 +313,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -340,12 +340,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>134953752649465984_1</t>
+          <t>142611173932997824_1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -365,27 +365,27 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>433.9285714</t>
+          <t>458.9285714</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>486.0</t>
+          <t>514.0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>133.03571429</t>
+          <t>91.07142857</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>PUNJAB</t>
+          <t>BIHAR</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -400,7 +400,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -427,12 +427,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>129293694360689408_1</t>
+          <t>141891287883652288_1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -452,7 +452,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>555.3571429</t>
+          <t>556.25</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -462,17 +462,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>622.0</t>
+          <t>623.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>28.57142857</t>
+          <t>36.60714286</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>KARNATAKA</t>
+          <t>BIHAR</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -514,12 +514,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>127680567999532290_1</t>
+          <t>139010373072985601_1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -539,27 +539,27 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>291.0714286</t>
+          <t>576.7857143</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>326.0</t>
+          <t>646.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>31.25</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>136906947336536192_1</t>
+          <t>147954005451834944_1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -626,27 +626,27 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>557.1428571</t>
+          <t>600.8928571</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>624.0</t>
+          <t>673.0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>55.35714286</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -688,12 +688,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>128144514519205184_1</t>
+          <t>146863248991340416_1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -713,27 +713,27 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>610.7142857</t>
+          <t>583.9285714</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>684.0</t>
+          <t>654.0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>58.03571429</t>
+          <t>38.39285714</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>JAMMU AND KASHMIR</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>131384421629791936_1</t>
+          <t>141600385139153282_1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -800,27 +800,27 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>594.6428571</t>
+          <t>417.8571429</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>666.0</t>
+          <t>468.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>41.96428571</t>
+          <t>90.17857143</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>PUNJAB</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -862,12 +862,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>130526956537414528_1</t>
+          <t>138532131962458944_1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>581.25</t>
+          <t>579.4642857</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>651.0</t>
+          <t>649.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>28.57142857</t>
+          <t>33.92857143</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -949,12 +949,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>129480209393323264_1</t>
+          <t>145901617732553856_1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -974,27 +974,27 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>470.5357143</t>
+          <t>459.8214286</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>527.0</t>
+          <t>515.0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>136.60714286</t>
+          <t>67.85714286</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ANDHRA PRADESH</t>
+          <t>TELANGANA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>127970516221103360_1</t>
+          <t>141848378426952000_1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1061,27 +1061,27 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>571.4285714</t>
+          <t>442.8571429</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>640.0</t>
+          <t>496.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>50.89285714</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>RAJASTHAN</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>131015731533218688_1</t>
+          <t>142912290484231040_1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1148,27 +1148,27 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>594.6428571</t>
+          <t>580.3571429</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>666.0</t>
+          <t>650.0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>41.96428571</t>
+          <t>34.82142857</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>KARNATAKA</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>130941454825787072_1</t>
+          <t>142241242754470592_1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1235,27 +1235,27 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>594.6428571</t>
+          <t>567.8571429</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>666.0</t>
+          <t>636.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>41.96428571</t>
+          <t>22.32142857</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>PUNJAB</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>129569175996009728_1</t>
+          <t>143313627160091520_1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1322,27 +1322,27 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>508.9285714</t>
+          <t>461.6071429</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>570.0</t>
+          <t>517.0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>133.03571429</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>GUJARAT</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>132153965801832581_1</t>
+          <t>144079315192664768_1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1409,27 +1409,27 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>483.9285714</t>
+          <t>434.8214286</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>542.0</t>
+          <t>487.0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>119.64285714</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>GUJARAT</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>133979191107289856_1</t>
+          <t>142703067497176256_1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1496,27 +1496,27 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>553.5714286</t>
+          <t>447.3214286</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>620.0</t>
+          <t>501.0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>33.92857143</t>
+          <t>89.28571429</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>HIMACHAL PRADESH</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>136442287148309248_1</t>
+          <t>146166507252348608_1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1583,27 +1583,27 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>583.9285714</t>
+          <t>609.8214286</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>683.0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>64.28571429</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>KARNATAKA</t>
+          <t>KERALA</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>132704619880220672_1</t>
+          <t>140462510477051968_1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1670,27 +1670,27 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>448.2142857</t>
+          <t>598.2142857</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>502.0</t>
+          <t>670.0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>128.57142857</t>
+          <t>52.67857143</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CHHATTISGARH</t>
+          <t>ASSAM</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>135684792071035648_1</t>
+          <t>145193653248662080_1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1757,27 +1757,27 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>475.8928571</t>
+          <t>592.8571429</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>533.0</t>
+          <t>664.0</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>148.21428571</t>
+          <t>47.32142857</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -1819,12 +1819,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>131985683970425536_1</t>
+          <t>140433550087751296_1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1844,27 +1844,27 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>428.5714286</t>
+          <t>581.25</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>480.0</t>
+          <t>651.0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>94.64285714</t>
+          <t>35.71428571</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>KARNATAKA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>132793802254754304_1</t>
+          <t>139571812974364736_1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1931,27 +1931,27 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>520.5357143</t>
+          <t>460.7142857</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>583.0</t>
+          <t>516.0</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>22.32142857</t>
+          <t>133.03571429</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CHHATTISGARH</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -1993,12 +1993,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>127597725567225088_1</t>
+          <t>147199628281320640_1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2018,27 +2018,27 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>311.6071429</t>
+          <t>445.5357143</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>349.0</t>
+          <t>499.0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>70.53571429</t>
+          <t>50.89285714</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2080,12 +2080,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>135235705807113472_1</t>
+          <t>140174333312927829_1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2105,27 +2105,27 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>433.9285714</t>
+          <t>575.0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>486.0</t>
+          <t>644.0</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>133.03571429</t>
+          <t>29.46428571</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>KERALA</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2167,12 +2167,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>135059045636379008_1</t>
+          <t>145023425307866752_1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2192,27 +2192,27 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>422.3214286</t>
+          <t>588.3928571</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>473.0</t>
+          <t>659.0</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>133.03571429</t>
+          <t>42.85714286</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>ODISHA</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>132142808663229120_1</t>
+          <t>147300552203404866_1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2279,27 +2279,27 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>593.75</t>
+          <t>409.8214286</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>665.0</t>
+          <t>459.0</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>41.07142857</t>
+          <t>41.96428571</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>137533571060926080_1</t>
+          <t>144522401899240640_1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2366,27 +2366,27 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>506.25</t>
+          <t>1141.0714286</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>567.0</t>
+          <t>1278.0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>101.78571429</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DELHI</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>132569991857210240_1</t>
+          <t>146306610339086528_1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2453,27 +2453,27 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>512.5</t>
+          <t>477.6785714</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>574.0</t>
+          <t>535.0</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>162.5</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>TELANGANA</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>134600964221702528_1</t>
+          <t>144118443338570944_1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2540,27 +2540,27 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>533.0357143</t>
+          <t>597.3214286</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>597.0</t>
+          <t>669.0</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>104.46428571</t>
+          <t>51.78571429</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>GUJARAT</t>
+          <t>ODISHA</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>128359903274534080_1</t>
+          <t>145190458196860097_1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2627,27 +2627,27 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>490.1785714</t>
+          <t>570.5357143</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>549.0</t>
+          <t>639.0</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>16.07142857</t>
+          <t>50.89285714</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MADHYA PRADESH</t>
+          <t>RAJASTHAN</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>128417024832596224_1</t>
+          <t>146200507820181888_1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2714,22 +2714,22 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>596.4285714</t>
+          <t>452.6785714</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>668.0</t>
+          <t>507.0</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>60.71428571</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>133042104833450688_1</t>
+          <t>147256412375713472_1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2801,27 +2801,27 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>525.8928571</t>
+          <t>596.4285714</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>589.0</t>
+          <t>668.0</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>50.89285714</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -2863,12 +2863,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>132818579108465920_1</t>
+          <t>138935889903791104_1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2888,27 +2888,27 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>531.25</t>
+          <t>544.6428571</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>595.0</t>
+          <t>610.0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>33.03571429</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>KERALA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2950,12 +2950,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>130955075496677056_1</t>
+          <t>142494154936939073_1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>568.75</t>
+          <t>569.6428571</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2985,17 +2985,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>637.0</t>
+          <t>638.0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>41.96428571</t>
+          <t>24.10714286</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>127679423429124224_1</t>
+          <t>149062028417141826_1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3062,22 +3062,22 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>517.8571429</t>
+          <t>583.9285714</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>580.0</t>
+          <t>654.0</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>38.39285714</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>133434134520824708_1</t>
+          <t>146559788550997888_1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3149,27 +3149,27 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>536.6071429</t>
+          <t>419.6428571</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>601.0</t>
+          <t>470.0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>104.46428571</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>CHHATTISGARH</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3211,12 +3211,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>136360395586408832_1</t>
+          <t>146556824652185792_1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>583.9285714</t>
+          <t>591.0714286</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3246,17 +3246,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>662.0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>45.53571429</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DELHI</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>128337522328891712_1</t>
+          <t>142099847095931584_1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3323,27 +3323,27 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>541.9642857</t>
+          <t>596.4285714</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>607.0</t>
+          <t>668.0</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>50.89285714</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CHANDIGARH</t>
+          <t>RAJASTHAN</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3385,12 +3385,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>135660059123157184_1</t>
+          <t>141752855739963776_1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3410,27 +3410,27 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>583.9285714</t>
+          <t>846.4285714</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>948.0</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>191.07142857</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>DELHI</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3472,12 +3472,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>128021276597051924_1</t>
+          <t>141166167976466688_1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3497,27 +3497,27 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>518.75</t>
+          <t>561.6071429</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>581.0</t>
+          <t>629.0</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>20.53571429</t>
+          <t>16.07142857</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>TELANGANA</t>
+          <t>RAJASTHAN</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3559,12 +3559,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>128123522349425152_1</t>
+          <t>140119372287712768_1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3584,27 +3584,27 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>486.6071429</t>
+          <t>1123.2142857</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>134</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>545.0</t>
+          <t>1258.0</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>73.21428571</t>
+          <t>32.14285714</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>TELANGANA</t>
+          <t>GUJARAT</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>135563589222468864_1</t>
+          <t>145195338764253634_1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3671,22 +3671,22 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>583.9285714</t>
+          <t>557.1428571</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>624.0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -3733,12 +3733,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>135784532589978240_1</t>
+          <t>142912269948979520_1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3758,27 +3758,27 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>494.6428571</t>
+          <t>614.2857143</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>554.0</t>
+          <t>688.0</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>126.78571429</t>
+          <t>68.75</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>KARNATAKA</t>
+          <t>JAMMU AND KASHMIR</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>131788471928953601_1</t>
+          <t>144363361597256256_1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3845,27 +3845,27 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>594.6428571</t>
+          <t>449.1071429</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>666.0</t>
+          <t>503.0</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>41.96428571</t>
+          <t>57.14285714</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>JAMMU AND KASHMIR</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -3907,12 +3907,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>135139916106736256_1</t>
+          <t>148840324302082816_1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3932,27 +3932,27 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>446.4285714</t>
+          <t>565.1785714</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>633.0</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>126.78571429</t>
+          <t>45.53571429</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>BIHAR</t>
+          <t>KERALA</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -3994,12 +3994,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>136142567473745152_1</t>
+          <t>142660824058141568_1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4019,27 +4019,27 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>494.6428571</t>
+          <t>551.7857143</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>554.0</t>
+          <t>618.0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>126.78571429</t>
+          <t>32.14285714</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>WEST BENGAL</t>
+          <t>KERALA</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>133439324766535808_1</t>
+          <t>142605009041093251_1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4106,27 +4106,27 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>432.1428571</t>
+          <t>1053.5714286</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>126</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>484.0</t>
+          <t>1180.0</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>59.82142857</t>
+          <t>317.85714286</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>MADHYA PRADESH</t>
+          <t>ODISHA</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4168,12 +4168,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>135391591706960000_1</t>
+          <t>144378872590867328_1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4193,27 +4193,27 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>396.4285714</t>
+          <t>583.0357143</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>444.0</t>
+          <t>653.0</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>95.53571429</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>ANDHRA PRADESH</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4255,12 +4255,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>135008663667378496_1</t>
+          <t>148849321025442432_1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4280,27 +4280,27 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>440.1785714</t>
+          <t>596.4285714</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>493.0</t>
+          <t>668.0</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>67.85714286</t>
+          <t>50.89285714</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>TELANGANA</t>
+          <t>RAJASTHAN</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4342,12 +4342,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>137596718332938304_1</t>
+          <t>145742162646698176_1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4367,27 +4367,27 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>444.6428571</t>
+          <t>591.9642857</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>498.0</t>
+          <t>663.0</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>149.10714286</t>
+          <t>46.42857143</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HARYANA</t>
+          <t>HIMACHAL PRADESH</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>132703903912198912_1</t>
+          <t>142579623813351744_1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4454,27 +4454,27 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>514.2857143</t>
+          <t>475.0</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>576.0</t>
+          <t>532.0</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>40.17857143</t>
+          <t>147.32142857</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4516,12 +4516,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>133621037765272192_1</t>
+          <t>148386438273537792_1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4541,27 +4541,27 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>536.6071429</t>
+          <t>596.4285714</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>601.0</t>
+          <t>668.0</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>50.89285714</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>WEST BENGAL</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -4603,12 +4603,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>127644991089834880_1</t>
+          <t>147398659038413440_1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4628,27 +4628,27 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>508.9285714</t>
+          <t>583.0357143</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>570.0</t>
+          <t>653.0</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>34.82142857</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>WEST BENGAL</t>
+          <t>TELANGANA</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -4690,12 +4690,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>137054116093821059_1</t>
+          <t>147044450806763648_1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4715,27 +4715,27 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>583.9285714</t>
+          <t>606.25</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>679.0</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>60.71428571</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -4777,12 +4777,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>137925562316985024_1</t>
+          <t>140122059450517568_1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4802,27 +4802,27 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>544.6428571</t>
+          <t>561.6071429</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>610.0</t>
+          <t>629.0</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>16.07142857</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>HARYANA</t>
+          <t>GUJARAT</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -4864,12 +4864,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>137510821621443520_1</t>
+          <t>141398350640911168_1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4889,27 +4889,27 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>548.2142857</t>
+          <t>438.3928571</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>614.0</t>
+          <t>491.0</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>28.57142857</t>
+          <t>110.71428571</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>KARNATAKA</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -4951,12 +4951,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>134530173965337472_1</t>
+          <t>140277069699978048_1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4976,27 +4976,27 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>558.0357143</t>
+          <t>442.8571429</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>625.0</t>
+          <t>496.0</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>63.39285714</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>GUJARAT</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>133959008990334208_1</t>
+          <t>145786414350484992_1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5063,27 +5063,27 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>533.9285714</t>
+          <t>458.9285714</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>598.0</t>
+          <t>514.0</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>91.07142857</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>UTTARAKHAND</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -5125,12 +5125,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>137937741001164928_1</t>
+          <t>139414249357808384_1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5150,27 +5150,27 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>529.4642857</t>
+          <t>448.2142857</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>593.0</t>
+          <t>502.0</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>133.03571429</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -5212,12 +5212,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>127824270969867521_1</t>
+          <t>145954933818017280_1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5237,27 +5237,27 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>516.9642857</t>
+          <t>463.3928571</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>579.0</t>
+          <t>519.0</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>135.71428571</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>GUJARAT</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -5299,12 +5299,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>133276474513072704_1</t>
+          <t>146132251646265536_1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5324,22 +5324,22 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>783.9285714</t>
+          <t>583.9285714</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>878.0</t>
+          <t>654.0</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>182.14285714</t>
+          <t>38.39285714</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>132880981911970304_1</t>
+          <t>148274398800741697_1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5411,27 +5411,27 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>550.8928571</t>
+          <t>432.1428571</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>617.0</t>
+          <t>484.0</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>52.67857143</t>
+          <t>104.46428571</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>JAMMU AND KASHMIR</t>
+          <t>CHHATTISGARH</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -5473,12 +5473,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>136321874279170944_1</t>
+          <t>141145419128869696_1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5498,27 +5498,27 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>469.6428571</t>
+          <t>435.7142857</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>526.0</t>
+          <t>488.0</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>126.78571429</t>
+          <t>108.03571429</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>BIHAR</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -5560,12 +5560,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>128524973043380544_1</t>
+          <t>144088058726865792_1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5585,27 +5585,27 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>516.9642857</t>
+          <t>416.9642857</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>579.0</t>
+          <t>467.0</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>101.78571429</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>HARYANA</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -5647,12 +5647,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>129259389416708928_1</t>
+          <t>148857381051667072_1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5672,27 +5672,27 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>458.0357143</t>
+          <t>557.1428571</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>513.0</t>
+          <t>624.0</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>124.10714286</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>HARYANA</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5707,7 +5707,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -5734,12 +5734,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>135667162106077312_1</t>
+          <t>144364925523495232_1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5759,27 +5759,27 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>477.6785714</t>
+          <t>438.3928571</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>535.0</t>
+          <t>491.0</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>46.42857143</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>TELANGANA</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>136096950327346048_1</t>
+          <t>145138231167809152_1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5846,27 +5846,27 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>583.9285714</t>
+          <t>456.25</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>511.0</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>98.21428571</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>ANDHRA PRADESH</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -5908,12 +5908,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>132671828697975168_1</t>
+          <t>138847892335921216_1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5933,27 +5933,27 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1025.0</t>
+          <t>458.0357143</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1148.0</t>
+          <t>513.0</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>76.78571429</t>
+          <t>130.35714286</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>TELANGANA</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -5995,12 +5995,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>137829237407716032_1</t>
+          <t>148101674006189824_1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6020,27 +6020,27 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>552.6785714</t>
+          <t>587.5</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>619.0</t>
+          <t>658.0</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>33.03571429</t>
+          <t>41.96428571</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>CHHATTISGARH</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -6082,12 +6082,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>131274801734032128_1</t>
+          <t>146195888926787712_1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6107,27 +6107,27 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>526.7857143</t>
+          <t>416.9642857</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>590.0</t>
+          <t>467.0</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>28.57142857</t>
+          <t>101.78571429</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>WEST BENGAL</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -6169,12 +6169,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>137498484625681408_1</t>
+          <t>138923246746178240_1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6194,27 +6194,27 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>583.9285714</t>
+          <t>592.8571429</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>664.0</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>47.32142857</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>HARYANA</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>130229772604572544_1</t>
+          <t>143680253876392640_1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6281,27 +6281,27 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>307.1428571</t>
+          <t>485.7142857</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>344.0</t>
+          <t>544.0</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>53.57142857</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>JAMMU AND KASHMIR</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>132906918451913280_1</t>
+          <t>140027431185126020_1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6368,27 +6368,27 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>532.1428571</t>
+          <t>440.1785714</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>596.0</t>
+          <t>493.0</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>33.92857143</t>
+          <t>48.21428571</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>MADHYA PRADESH</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -6430,12 +6430,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>136874202186949184_1</t>
+          <t>143427312725389888_1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6455,22 +6455,22 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>529.4642857</t>
+          <t>596.4285714</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>593.0</t>
+          <t>668.0</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>50.89285714</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -6517,12 +6517,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>133462426921509440_1</t>
+          <t>140501469531575104_1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6542,27 +6542,27 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>440.1785714</t>
+          <t>583.9285714</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>493.0</t>
+          <t>654.0</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>67.85714286</t>
+          <t>38.39285714</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -6604,12 +6604,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>138093133825676096_1</t>
+          <t>147644750064617024_1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6629,27 +6629,27 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>479.4642857</t>
+          <t>565.1785714</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>537.0</t>
+          <t>633.0</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>151.78571429</t>
+          <t>173.21428571</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>CHHATTISGARH</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -6691,12 +6691,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>134652278404973443_1</t>
+          <t>147730869180337219_1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6716,27 +6716,27 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>821.4285714</t>
+          <t>566.0714286</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>920.0</t>
+          <t>634.0</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>98.21428571</t>
+          <t>46.42857143</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>DELHI</t>
+          <t>TELANGANA</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -6778,12 +6778,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>128769987207987392_1</t>
+          <t>143313627160091520_2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6803,27 +6803,27 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>541.9642857</t>
+          <t>433.9285714</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>607.0</t>
+          <t>486.0</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>106.25</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>PUNJAB</t>
+          <t>GUJARAT</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -6865,12 +6865,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>133477294487603200_1</t>
+          <t>146338422304294784_1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6890,22 +6890,22 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>536.6071429</t>
+          <t>600.8928571</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>601.0</t>
+          <t>673.0</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>55.35714286</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -6952,12 +6952,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>136013613247660800_1</t>
+          <t>148404587916138240_1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6977,27 +6977,27 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>529.4642857</t>
+          <t>597.3214286</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>593.0</t>
+          <t>669.0</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>51.78571429</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>DELHI</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -7039,12 +7039,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>136354636222073024_1</t>
+          <t>141575874281861248_1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -7064,27 +7064,27 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>509.8214286</t>
+          <t>418.75</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>571.0</t>
+          <t>469.0</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>141.96428571</t>
+          <t>91.07142857</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>KERALA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -7099,7 +7099,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -7126,12 +7126,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>133125009768874752_1</t>
+          <t>140069761984336704_1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -7151,27 +7151,27 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>531.25</t>
+          <t>583.9285714</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>595.0</t>
+          <t>654.0</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>33.03571429</t>
+          <t>38.39285714</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>MADHYA PRADESH</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -7213,12 +7213,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>133104739804939008_1</t>
+          <t>138642461458073664_1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -7238,22 +7238,22 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>426.7857143</t>
+          <t>460.7142857</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>478.0</t>
+          <t>516.0</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>125.89285714</t>
+          <t>133.03571429</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -7300,12 +7300,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>136333183377545984_1</t>
+          <t>146560607360745668_1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -7325,27 +7325,27 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>448.2142857</t>
+          <t>421.4285714</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>502.0</t>
+          <t>472.0</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>133.03571429</t>
+          <t>106.25</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>KARNATAKA</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -7387,12 +7387,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>127701687381072256_1</t>
+          <t>145154753118705472_1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -7412,27 +7412,27 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>513.3928571</t>
+          <t>610.7142857</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>575.0</t>
+          <t>684.0</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>39.28571429</t>
+          <t>65.17857143</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>HIMACHAL PRADESH</t>
+          <t>ASSAM</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -7474,12 +7474,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>133484896680052928_1</t>
+          <t>142686826162445504_1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -7499,22 +7499,22 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>433.9285714</t>
+          <t>571.4285714</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>486.0</t>
+          <t>640.0</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>133.03571429</t>
+          <t>25.89285714</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -7561,12 +7561,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>131814698109863936_1</t>
+          <t>144118217358832192_1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -7586,27 +7586,27 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1162.5</t>
+          <t>596.4285714</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>1302.0</t>
+          <t>668.0</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>57.14285714</t>
+          <t>50.89285714</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>RAJASTHAN</t>
+          <t>WEST BENGAL</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -7648,12 +7648,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>135140045505136640_1</t>
+          <t>144865316560041664_1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7673,27 +7673,27 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>446.4285714</t>
+          <t>587.5</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>500.0</t>
+          <t>658.0</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>126.78571429</t>
+          <t>41.96428571</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>BIHAR</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -7735,12 +7735,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>135429808193278336_1</t>
+          <t>141858838446207616_1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7760,27 +7760,27 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>536.6071429</t>
+          <t>583.0357143</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>601.0</t>
+          <t>653.0</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>PUNJAB</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -7822,12 +7822,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>138206452947456640_1</t>
+          <t>144259513062912581_1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -7847,22 +7847,22 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>421.4285714</t>
+          <t>458.9285714</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>472.0</t>
+          <t>514.0</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>67.85714286</t>
+          <t>91.07142857</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -7909,12 +7909,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>127694542274191872_1</t>
+          <t>145155727707182913_1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7934,27 +7934,27 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>535.7142857</t>
+          <t>578.5714286</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>600.0</t>
+          <t>648.0</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>33.03571429</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>RAJASTHAN</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -7996,12 +7996,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>136048693026791552_1</t>
+          <t>141582667850815232_1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -8021,27 +8021,27 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>583.9285714</t>
+          <t>416.0714286</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>466.0</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>100.89285714</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>WEST BENGAL</t>
+          <t>TELANGANA</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -8083,12 +8083,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>137768782201260034_1</t>
+          <t>139042719574627072_1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>418.75</t>
+          <t>421.4285714</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -8118,17 +8118,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>469.0</t>
+          <t>472.0</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>91.07142857</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>JHARKHAND</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -8170,12 +8170,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>137499883867837248_1</t>
+          <t>142293801004036736_1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -8195,27 +8195,27 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>583.9285714</t>
+          <t>462.5</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>518.0</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>134.82142857</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>HARYANA</t>
+          <t>GUJARAT</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -8257,12 +8257,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>136779977818677824_1</t>
+          <t>139756148781001792_1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -8282,17 +8282,17 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>494.6428571</t>
+          <t>484.8214286</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>554.0</t>
+          <t>543.0</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>ANDHRA PRADESH</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -8344,12 +8344,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>130163943922539269_1</t>
+          <t>141136548549205376_1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -8369,27 +8369,27 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>307.1428571</t>
+          <t>496.4285714</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>344.0</t>
+          <t>556.0</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>53.57142857</t>
+          <t>168.75</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -8431,12 +8431,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>136841474175566720_1</t>
+          <t>138489026960066688_1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -8456,27 +8456,27 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>516.0714286</t>
+          <t>460.7142857</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>578.0</t>
+          <t>516.0</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>133.03571429</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -8518,12 +8518,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>133403191416234112_1</t>
+          <t>144364336102148416_1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -8543,27 +8543,27 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>422.3214286</t>
+          <t>589.2857143</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>473.0</t>
+          <t>660.0</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>133.03571429</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>MADHYA PRADESH</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -8605,12 +8605,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>131606201145460736_1</t>
+          <t>140733194874491584_1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -8630,27 +8630,27 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>407.1428571</t>
+          <t>566.0714286</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>456.0</t>
+          <t>634.0</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>95.53571429</t>
+          <t>20.53571429</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>TELANGANA</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -8692,12 +8692,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>136105341229507136_1</t>
+          <t>148054100188956224_1</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -8717,27 +8717,27 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>454.4642857</t>
+          <t>600.8928571</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>509.0</t>
+          <t>673.0</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>96.42857143</t>
+          <t>55.35714286</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>GUJARAT</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -8779,12 +8779,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>135230932553795584_1</t>
+          <t>144423634277653696_1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -8804,27 +8804,27 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>536.6071429</t>
+          <t>583.0357143</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>601.0</t>
+          <t>653.0</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>BIHAR</t>
+          <t>KERALA</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -8866,12 +8866,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>133620746604675843_1</t>
+          <t>148274398800741697_2</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -8891,27 +8891,27 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>536.6071429</t>
+          <t>451.7857143</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>601.0</t>
+          <t>506.0</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>83.92857143</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>WEST BENGAL</t>
+          <t>CHHATTISGARH</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
@@ -8953,12 +8953,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>134173461269350592_1</t>
+          <t>142590588269206400_1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -8978,27 +8978,27 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>438.3928571</t>
+          <t>427.6785714</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>491.0</t>
+          <t>479.0</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>66.07142857</t>
+          <t>48.21428571</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
@@ -9040,12 +9040,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>131267342801240192_1</t>
+          <t>143298387562353344_1</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -9065,27 +9065,27 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>555.3571429</t>
+          <t>462.5</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>622.0</t>
+          <t>518.0</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>28.57142857</t>
+          <t>94.64285714</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>BIHAR</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -9127,12 +9127,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>130175769988497536_1</t>
+          <t>138592234642910272_1</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -9152,27 +9152,27 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>581.25</t>
+          <t>543.75</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>651.0</t>
+          <t>609.0</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>28.57142857</t>
+          <t>24.10714286</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -9187,7 +9187,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -9214,12 +9214,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>131203787187979136_1</t>
+          <t>138565831763069002_1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -9239,27 +9239,27 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>608.9285714</t>
+          <t>543.75</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>682.0</t>
+          <t>609.0</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>56.25</t>
+          <t>24.10714286</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>SIKKIM</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -9274,7 +9274,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
@@ -9301,12 +9301,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>134286281365947264_1</t>
+          <t>145797764948105792_1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -9326,27 +9326,27 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>548.2142857</t>
+          <t>583.0357143</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>614.0</t>
+          <t>653.0</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>52.67857143</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>ASSAM</t>
+          <t>UTTAR PRADESH</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
@@ -9388,12 +9388,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>135587771472716416_1</t>
+          <t>144784534646921024_1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -9413,27 +9413,27 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>494.6428571</t>
+          <t>447.3214286</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>554.0</t>
+          <t>501.0</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>126.78571429</t>
+          <t>119.64285714</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>ODISHA</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -9475,12 +9475,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>133191201086933312_1</t>
+          <t>145177926195082880_1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -9500,27 +9500,27 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>433.9285714</t>
+          <t>579.4642857</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>486.0</t>
+          <t>649.0</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>133.03571429</t>
+          <t>59.82142857</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
@@ -9562,12 +9562,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>136231116158699840_1</t>
+          <t>144509869474077888_1</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -9587,27 +9587,27 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>583.9285714</t>
+          <t>422.3214286</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>654.0</t>
+          <t>473.0</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>107.14285714</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -9649,12 +9649,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>132071340289983168_1</t>
+          <t>145429482467657928_1</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -9674,27 +9674,27 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>608.9285714</t>
+          <t>583.0357143</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>682.0</t>
+          <t>653.0</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>56.25</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>JAMMU AND KASHMIR</t>
+          <t>UTTARAKHAND</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -9736,12 +9736,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>129569756726500096_1</t>
+          <t>144429589463716544_1</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -9761,27 +9761,27 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>470.5357143</t>
+          <t>442.8571429</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>527.0</t>
+          <t>496.0</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>136.60714286</t>
+          <t>50.89285714</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -9796,7 +9796,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -9823,12 +9823,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>127720273147402624_1</t>
+          <t>141037002154417600_1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -9848,27 +9848,27 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>311.6071429</t>
+          <t>570.5357143</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>349.0</t>
+          <t>639.0</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>70.53571429</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>UTTARAKHAND</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
@@ -9910,12 +9910,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>136378653365836544_1</t>
+          <t>140607449925784320_1</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -9935,27 +9935,27 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>428.5714286</t>
+          <t>463.3928571</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>480.0</t>
+          <t>519.0</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>133.03571429</t>
+          <t>135.71428571</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>BIHAR</t>
+          <t>MAHARASHTRA</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
@@ -9997,12 +9997,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>128835487573182400_1</t>
+          <t>145782257243068996_1</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -10022,22 +10022,22 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>561.6071429</t>
+          <t>558.0357143</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>629.0</t>
+          <t>625.0</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>34.82142857</t>
+          <t>38.39285714</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
@@ -10084,12 +10084,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>128874825440215616_1</t>
+          <t>143613346931383168_1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -10109,27 +10109,27 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>516.9642857</t>
+          <t>474.1071429</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>579.0</t>
+          <t>531.0</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>146.42857143</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>PONDICHERRY</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -10171,12 +10171,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>133251904466325888_1</t>
+          <t>140306710091371220_1</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -10196,22 +10196,22 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>532.1428571</t>
+          <t>570.5357143</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>596.0</t>
+          <t>639.0</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>33.92857143</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -10231,7 +10231,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -10258,12 +10258,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>131588843598060291_1</t>
+          <t>143263571224664960_1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -10283,27 +10283,27 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>581.25</t>
+          <t>584.8214286</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>651.0</t>
+          <t>655.0</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>28.57142857</t>
+          <t>39.28571429</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -10318,7 +10318,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
@@ -10345,12 +10345,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>134163334986369216_1</t>
+          <t>147572626671960704_1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -10370,27 +10370,27 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>558.0357143</t>
+          <t>565.1785714</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>625.0</t>
+          <t>633.0</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>38.39285714</t>
+          <t>45.53571429</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>TAMIL NADU</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
@@ -10432,12 +10432,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>128732509869511936_1</t>
+          <t>143044652295385664_1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -10457,27 +10457,27 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>541.9642857</t>
+          <t>575.8928571</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>607.0</t>
+          <t>645.0</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>30.35714286</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>UTTAR PRADESH</t>
+          <t>KARNATAKA</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
@@ -10519,12 +10519,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>130395952671015552_1</t>
+          <t>149218063592952453_1</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -10544,22 +10544,22 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>557.1428571</t>
+          <t>433.9285714</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>624.0</t>
+          <t>486.0</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>30.35714286</t>
+          <t>106.25</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -10579,7 +10579,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -10606,12 +10606,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>130672708561580544_1</t>
+          <t>142167299150467776_1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>568.75</t>
+          <t>569.6428571</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -10641,17 +10641,17 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>637.0</t>
+          <t>638.0</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>41.96428571</t>
+          <t>24.10714286</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>KARNATAKA</t>
+          <t>HARYANA</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
@@ -10693,12 +10693,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>136320417534354048_1</t>
+          <t>141230403909784384_1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -10718,22 +10718,22 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>440.1785714</t>
+          <t>543.75</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>493.0</t>
+          <t>609.0</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>126.78571429</t>
+          <t>24.10714286</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -10780,12 +10780,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>127749082940775936_1</t>
+          <t>143393966976791104_1</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -10805,27 +10805,27 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>311.6071429</t>
+          <t>457.1428571</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>349.0</t>
+          <t>512.0</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>70.53571429</t>
+          <t>65.17857143</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>MAHARASHTRA</t>
+          <t>GUJARAT</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -10867,12 +10867,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>138122846807888640_1</t>
+          <t>143004263476004100_1</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>570.5357143</t>
+          <t>569.6428571</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -10902,17 +10902,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>639.0</t>
+          <t>638.0</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>24.10714286</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>TAMIL NADU</t>
+          <t>RAJASTHAN</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -10927,1141 +10927,10 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>129467922418572096_1</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>470.5357143</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>527.0</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>136.60714286</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>TAMIL NADU</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>129140905907391744_1</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>540.1785714</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>605.0</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>41.96428571</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>DELHI</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q127" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>130226040249584896_1</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>499.1071429</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>559.0</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>133.03571429</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>TAMIL NADU</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>127694643090333824_1</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>535.7142857</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>600.0</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>RAJASTHAN</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>132346023158815488_1</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>2025-03-15</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>540.1785714</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>605.0</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>41.96428571</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>HIMACHAL PRADESH</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>132426049139933952_1</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2025-03-15</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>305.3571429</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>342.0</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>51.78571429</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>MAHARASHTRA</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>137222159323144832_1</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>570.5357143</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>639.0</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>TAMIL NADU</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>127698418994846080_1</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>517.8571429</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>580.0</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>225.89285714</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>ANDAMAN AND NICOBAR ISLANDS</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>136323409540712768_1</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>406.25</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>455.0</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>91.07142857</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>TELANGANA</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>133515592309936512_1</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>512.5</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>574.0</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>38.39285714</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>JHARKHAND</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>138163608914659460_1</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>492.8571429</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>552.0</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>JHARKHAND</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>133204894080761984_1</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>450.8928571</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>505.0</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>150.0</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>TELANGANA</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>1168621</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>ehqhb</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>VMSK</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>23OCZPS1233N1ZM</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>134269762937981120_1</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>970300</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>557.1428571</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>624.0</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>MAHARASHTRA</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q138" t="inlineStr">
         <is>
           <t>1168621</t>
         </is>
